--- a/Loggerhead2022_worked.xlsx
+++ b/Loggerhead2022_worked.xlsx
@@ -4384,16 +4384,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>228599</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4737,10 +4737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H112"/>
+  <dimension ref="A1:O112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M120" sqref="M120"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -4749,7 +4749,7 @@
     <col min="9" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4761,7 +4761,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
@@ -4770,7 +4770,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -4793,122 +4793,222 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="4">
+        <f>K4*1</f>
         <v>0</v>
       </c>
       <c r="C4" s="4">
+        <f t="shared" ref="C4:F8" si="0">L4*1</f>
         <v>0</v>
       </c>
       <c r="D4" s="4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4" s="4">
+        <f t="shared" si="0"/>
         <v>4.665</v>
       </c>
       <c r="F4" s="4">
+        <f t="shared" si="0"/>
         <v>61.896000000000001</v>
       </c>
       <c r="H4" s="1">
         <v>2000</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
+        <v>4.665</v>
+      </c>
+      <c r="O4" s="4">
+        <v>61.896000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="4">
+        <f t="shared" ref="B5:B8" si="1">K5*1</f>
         <v>0.67500000000000004</v>
       </c>
       <c r="C5" s="4">
+        <f t="shared" ref="C5:C8" si="2">L5*1</f>
         <v>0.70299999999999996</v>
       </c>
       <c r="D5" s="4">
+        <f t="shared" ref="D5:D8" si="3">M5*1</f>
         <v>0</v>
       </c>
       <c r="E5" s="4">
+        <f t="shared" ref="E5:E8" si="4">N5*1</f>
         <v>0</v>
       </c>
       <c r="F5" s="4">
+        <f t="shared" ref="F5:F8" si="5">O5*1</f>
         <v>0</v>
       </c>
       <c r="H5" s="1">
         <v>500</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K5" s="4">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C6" s="4">
+        <f t="shared" si="2"/>
         <v>4.7E-2</v>
       </c>
       <c r="D6" s="4">
+        <f t="shared" si="3"/>
         <v>0.65700000000000003</v>
       </c>
       <c r="E6" s="4">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F6" s="4">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H6" s="1">
         <v>300</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <v>4.7E-2</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C7" s="4">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D7" s="4">
+        <f t="shared" si="3"/>
         <v>1.9E-2</v>
       </c>
       <c r="E7" s="4">
+        <f t="shared" si="4"/>
         <v>0.68200000000000005</v>
       </c>
       <c r="F7" s="4">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H7" s="1">
         <v>300</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
+        <v>1.9E-2</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C8" s="4">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D8" s="4">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E8" s="4">
+        <f t="shared" si="4"/>
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="F8" s="4">
+        <f t="shared" si="5"/>
         <v>0.80900000000000005</v>
       </c>
       <c r="H8" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0.80900000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -4931,7 +5031,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -4960,7 +5060,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -4985,78 +5085,78 @@
         <v>34.480000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2</v>
       </c>
       <c r="B14" s="5">
-        <f t="shared" ref="B14:B77" si="0">B13*$B$4+C13*$C$4+D13*$D$4+E13*$E$4+F13*$F$4</f>
+        <f t="shared" ref="B14:B77" si="6">B13*$B$4+C13*$C$4+D13*$D$4+E13*$E$4+F13*$F$4</f>
         <v>3115.2235800000003</v>
       </c>
       <c r="C14" s="5">
-        <f t="shared" ref="C14:C77" si="1">B13*$B$5+C13*$C$5+D13*$D$5+E13*$E$5+F13*$F$5</f>
+        <f t="shared" ref="C14:C77" si="7">B13*$B$5+C13*$C$5+D13*$D$5+E13*$E$5+F13*$F$5</f>
         <v>2976.413</v>
       </c>
       <c r="D14" s="5">
-        <f t="shared" ref="D14:D77" si="2">B13*$B$6+C13*$C$6+D13*$D$6+E13*$E$6+F13*$F$6</f>
+        <f t="shared" ref="D14:D77" si="8">B13*$B$6+C13*$C$6+D13*$D$6+E13*$E$6+F13*$F$6</f>
         <v>224.90470000000005</v>
       </c>
       <c r="E14" s="5">
-        <f t="shared" ref="E14:E77" si="3">B13*$B$7+C13*$C$7+D13*$D$7+E13*$E$7+F13*$F$7</f>
+        <f t="shared" ref="E14:E77" si="9">B13*$B$7+C13*$C$7+D13*$D$7+E13*$E$7+F13*$F$7</f>
         <v>147.61600000000001</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" ref="F14:F77" si="4">B13*$B$8+C13*$C$8+D13*$D$8+E13*$E$8+F13*$F$8</f>
+        <f t="shared" ref="F14:F77" si="10">B13*$B$8+C13*$C$8+D13*$D$8+E13*$E$8+F13*$F$8</f>
         <v>40.722620000000006</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>3</v>
       </c>
       <c r="B15" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>3209.1959275200002</v>
       </c>
       <c r="C15" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>4195.1942555000005</v>
       </c>
       <c r="D15" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>287.65379890000008</v>
       </c>
       <c r="E15" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>104.94730130000002</v>
       </c>
       <c r="F15" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>41.949175580000009</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>4</v>
       </c>
       <c r="B16" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>3086.0653322641806</v>
       </c>
       <c r="C16" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>5115.4288126925003</v>
       </c>
       <c r="D16" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>386.16267588580007</v>
       </c>
       <c r="E16" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>77.039481665700023</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>40.338668423520012</v>
       </c>
     </row>
@@ -5065,23 +5165,23 @@
         <v>5</v>
       </c>
       <c r="B17" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2856.191402712685</v>
       </c>
       <c r="C17" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>5679.2405546011496</v>
       </c>
       <c r="D17" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>494.13403225351817</v>
       </c>
       <c r="E17" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>59.878017337837626</v>
       </c>
       <c r="F17" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>37.333391136235399</v>
       </c>
     </row>
@@ -5090,23 +5190,23 @@
         <v>6</v>
       </c>
       <c r="B18" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2590.1185286494388</v>
       </c>
       <c r="C18" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>5920.4353067156708</v>
       </c>
       <c r="D18" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>591.57036525681542</v>
       </c>
       <c r="E18" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>50.225354437222109</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>33.855272486822535</v>
       </c>
     </row>
@@ -5115,23 +5215,23 @@
         <v>7</v>
       </c>
       <c r="B19" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2329.8072242940088</v>
       </c>
       <c r="C19" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>5910.3960274594874</v>
       </c>
       <c r="D19" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>666.92218938936435</v>
       </c>
       <c r="E19" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>45.493528666064975</v>
       </c>
       <c r="F19" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>30.452662062509983</v>
       </c>
     </row>
@@ -5140,23 +5240,23 @@
         <v>8</v>
       </c>
       <c r="B20" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2097.1252822483111</v>
       </c>
       <c r="C20" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>5727.6282837024755</v>
       </c>
       <c r="D20" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>715.95649171940829</v>
       </c>
       <c r="E20" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>43.698108148654235</v>
       </c>
       <c r="F20" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>27.411308857200542</v>
       </c>
     </row>
@@ -5165,23 +5265,23 @@
         <v>9</v>
       </c>
       <c r="B21" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1900.5020475387569</v>
       </c>
       <c r="C21" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>5442.0822489604498</v>
       </c>
       <c r="D21" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>739.58194439366764</v>
       </c>
       <c r="E21" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>43.405283100050951</v>
       </c>
       <c r="F21" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>24.841333462543147</v>
       </c>
     </row>
@@ -5190,23 +5290,23 @@
         <v>10</v>
       </c>
       <c r="B22" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1740.0648216593083</v>
       </c>
       <c r="C22" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>5108.622703107857</v>
       </c>
       <c r="D22" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>741.68320316778079</v>
       </c>
       <c r="E22" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>43.654460017714435</v>
       </c>
       <c r="F22" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>22.744361040300518</v>
       </c>
     </row>
@@ -5215,23 +5315,23 @@
         <v>11</v>
       </c>
       <c r="B23" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1611.4330269330787</v>
       </c>
       <c r="C23" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>4765.9055149048563</v>
       </c>
       <c r="D23" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>727.39113152730124</v>
       </c>
       <c r="E23" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>43.864322592269083</v>
       </c>
       <c r="F23" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>21.063110142683698</v>
       </c>
     </row>
@@ -5240,23 +5340,23 @@
         <v>12</v>
       </c>
       <c r="B24" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1508.3493302844854</v>
       </c>
       <c r="C24" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>4438.1488701579419</v>
       </c>
       <c r="D24" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>701.89353261396514</v>
       </c>
       <c r="E24" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>43.73589950694624</v>
       </c>
       <c r="F24" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>19.715779783559526</v>
       </c>
     </row>
@@ -5265,23 +5365,23 @@
         <v>13</v>
       </c>
       <c r="B25" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1424.3558766831047</v>
       </c>
       <c r="C25" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>4138.1544536630608</v>
       </c>
       <c r="D25" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>669.73704782479842</v>
       </c>
       <c r="E25" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>43.163860583402673</v>
       </c>
       <c r="F25" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>18.617955714823378</v>
       </c>
     </row>
@@ -5290,23 +5390,23 @@
         <v>14</v>
       </c>
       <c r="B26" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1353.7363965462812</v>
       </c>
       <c r="C26" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>3870.562797686227</v>
       </c>
       <c r="D26" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>634.51049974305647</v>
       </c>
       <c r="E26" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>42.162756826551799</v>
       </c>
       <c r="F26" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>17.694921668879676</v>
       </c>
     </row>
@@ -5315,23 +5415,23 @@
         <v>15</v>
       </c>
       <c r="B27" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1291.9341322128407</v>
       </c>
       <c r="C27" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>3634.7777144421575</v>
       </c>
       <c r="D27" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>598.78984982244083</v>
       </c>
       <c r="E27" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>40.810699650826407</v>
       </c>
       <c r="F27" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>16.887119796543317</v>
       </c>
     </row>
@@ -5340,23 +5440,23 @@
         <v>16</v>
       </c>
       <c r="B28" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1235.6270807979502</v>
       </c>
       <c r="C28" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>3427.3042724965044</v>
       </c>
       <c r="D28" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>564.23948391212502</v>
       </c>
       <c r="E28" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>39.209904308489989</v>
       </c>
       <c r="F28" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>16.151132594103956</v>
       </c>
     </row>
@@ -5365,23 +5465,23 @@
         <v>17</v>
       </c>
       <c r="B29" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1182.6047066437643</v>
       </c>
       <c r="C29" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>3243.4431831036591</v>
       </c>
       <c r="D29" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>531.78864173760189</v>
       </c>
       <c r="E29" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>37.461704932720551</v>
       </c>
       <c r="F29" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>15.458070431447991</v>
       </c>
     </row>
@@ -5390,23 +5490,23 @@
         <v>18</v>
       </c>
       <c r="B30" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1131.5515809360463</v>
       </c>
       <c r="C30" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>3078.3987347064131</v>
       </c>
       <c r="D30" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>501.82696722747647</v>
       </c>
       <c r="E30" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>35.652866957129852</v>
       </c>
       <c r="F30" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>14.790742979937379</v>
       </c>
     </row>
@@ -5415,23 +5515,23 @@
         <v>19</v>
       </c>
       <c r="B31" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1081.8084518412147</v>
       </c>
       <c r="C31" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>2927.9116276304394</v>
       </c>
       <c r="D31" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>474.38505799965344</v>
       </c>
       <c r="E31" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>33.849967642084614</v>
       </c>
       <c r="F31" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>14.140535955154263</v>
       </c>
     </row>
@@ -5440,23 +5540,23 @@
         <v>20</v>
       </c>
       <c r="B32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1033.1527125305531</v>
       </c>
       <c r="C32" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>2788.542579217019</v>
       </c>
       <c r="D32" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>449.28282960440299</v>
       </c>
       <c r="E32" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>32.098994033895124</v>
       </c>
       <c r="F32" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>13.504541613886961</v>
       </c>
     </row>
@@ -5465,23 +5565,23 @@
         <v>21</v>
       </c>
       <c r="B33" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>985.61891490126811</v>
       </c>
       <c r="C33" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>2657.7235141476876</v>
       </c>
       <c r="D33" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>426.2403202732927</v>
       </c>
       <c r="E33" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>30.427887693600134</v>
       </c>
       <c r="F33" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>12.883212801702154</v>
       </c>
     </row>
@@ -5490,23 +5590,23 @@
         <v>22</v>
       </c>
       <c r="B34" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>939.36543566480123</v>
       </c>
       <c r="C34" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>2533.6723980041802</v>
       </c>
       <c r="D34" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>404.95289558449463</v>
       </c>
       <c r="E34" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>28.850385492227851</v>
       </c>
       <c r="F34" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>12.278620305886651</v>
       </c>
     </row>
@@ -5515,23 +5615,23 @@
         <v>23</v>
       </c>
       <c r="B35" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>894.58453077440311</v>
       </c>
       <c r="C35" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>2415.2433648706792</v>
       </c>
       <c r="D35" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>385.13665510520946</v>
       </c>
       <c r="E35" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>27.370067921804793</v>
       </c>
       <c r="F35" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>11.6932773424882</v>
       </c>
     </row>
@@ -5540,23 +5640,23 @@
         <v>24</v>
       </c>
       <c r="B36" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>851.448461245869</v>
       </c>
       <c r="C36" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>2301.7606437768095</v>
       </c>
       <c r="D36" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>366.55122055304457</v>
       </c>
       <c r="E36" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>25.983982769669851</v>
       </c>
       <c r="F36" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>11.129435513303045</v>
       </c>
     </row>
@@ -5565,23 +5665,23 @@
         <v>25</v>
       </c>
       <c r="B37" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>810.08282015191514</v>
       </c>
       <c r="C37" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>2192.8654439160587</v>
       </c>
       <c r="D37" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>349.00690216086036</v>
       </c>
       <c r="E37" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>24.685549439422687</v>
       </c>
       <c r="F37" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>10.588736279212025</v>
       </c>
     </row>
@@ -5590,23 +5690,23 @@
         <v>26</v>
       </c>
       <c r="B38" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>770.55850887301438</v>
       </c>
       <c r="C38" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>2088.390310675532</v>
       </c>
       <c r="D38" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>332.36221058374002</v>
       </c>
       <c r="E38" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>23.466675858742619</v>
       </c>
       <c r="F38" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>10.072106165687313</v>
       </c>
     </row>
@@ -5615,23 +5715,23 @@
         <v>27</v>
       </c>
       <c r="B39" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>732.89512611241628</v>
       </c>
       <c r="C39" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1988.2653818941835</v>
       </c>
       <c r="D39" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>316.5163169552672</v>
       </c>
       <c r="E39" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>22.319154936753527</v>
       </c>
       <c r="F39" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>9.5798011154243365</v>
       </c>
     </row>
@@ -5640,23 +5740,23 @@
         <v>28</v>
       </c>
       <c r="B40" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>697.07022762025997</v>
       </c>
       <c r="C40" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1892.454773597492</v>
       </c>
       <c r="D40" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>301.39969318863717</v>
       </c>
       <c r="E40" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>21.235473689015983</v>
       </c>
       <c r="F40" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>9.1115275535202542</v>
       </c>
     </row>
@@ -5665,23 +5765,23 @@
         <v>29</v>
       </c>
       <c r="B41" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>663.03059421194928</v>
       </c>
       <c r="C41" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1800.9181094827122</v>
       </c>
       <c r="D41" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>286.96497278401677</v>
       </c>
       <c r="E41" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>20.209187226493007</v>
       </c>
       <c r="F41" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>8.6665896858278604</v>
       </c>
     </row>
@@ -5690,23 +5790,23 @@
         <v>30</v>
       </c>
       <c r="B42" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>630.70309360559111</v>
       </c>
       <c r="C42" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1713.5910820594124</v>
       </c>
       <c r="D42" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>273.1791382647865</v>
       </c>
       <c r="E42" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>19.23500017136455</v>
       </c>
       <c r="F42" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>8.2440314766508127</v>
       </c>
     </row>
@@ -5715,23 +5815,23 @@
         <v>31</v>
       </c>
       <c r="B43" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>600.00384807819432</v>
       </c>
       <c r="C43" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1630.3791188715409</v>
       </c>
       <c r="D43" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>260.01747469675712</v>
       </c>
       <c r="E43" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>18.308673743901569</v>
       </c>
       <c r="F43" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>7.8427564750637462</v>
       </c>
     </row>
@@ -5740,23 +5840,23 @@
         <v>32</v>
       </c>
       <c r="B44" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>570.84521779584645</v>
       </c>
       <c r="C44" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1551.1591180194744</v>
       </c>
       <c r="D44" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>247.45929946273185</v>
       </c>
       <c r="E44" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>17.426847512579258</v>
       </c>
       <c r="F44" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>7.4616190867045669</v>
       </c>
     </row>
@@ -5765,23 +5865,23 @@
         <v>33</v>
       </c>
       <c r="B45" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>543.1406186368481</v>
       </c>
       <c r="C45" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1475.7853819798868</v>
       </c>
       <c r="D45" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>235.48523829393014</v>
       </c>
       <c r="E45" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>16.586836693370959</v>
       </c>
       <c r="F45" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>7.0994875394113297</v>
       </c>
     </row>
@@ -5790,23 +5890,23 @@
         <v>34</v>
       </c>
       <c r="B46" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>516.80747391397915</v>
       </c>
       <c r="C46" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1404.0970411117328</v>
       </c>
       <c r="D46" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>224.0757145121668</v>
       </c>
       <c r="E46" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>15.786442152463668</v>
       </c>
       <c r="F46" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>6.7552824576793942</v>
       </c>
     </row>
@@ -5815,23 +5915,23 @@
         <v>35</v>
       </c>
       <c r="B47" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>491.76871564176679</v>
       </c>
       <c r="C47" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1335.9252647934841</v>
       </c>
       <c r="D47" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>213.21030536674505</v>
       </c>
       <c r="E47" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>15.023792123711392</v>
       </c>
       <c r="F47" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>6.4279964795629141</v>
       </c>
     </row>
@@ -5840,23 +5940,23 @@
         <v>36</v>
       </c>
       <c r="B48" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>467.95326035613977</v>
       </c>
       <c r="C48" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1271.0993442080119</v>
       </c>
       <c r="D48" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>202.86765807124524</v>
       </c>
       <c r="E48" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>14.297222030339325</v>
       </c>
       <c r="F48" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>6.1167004715127931</v>
       </c>
     </row>
@@ -5865,23 +5965,23 @@
         <v>37</v>
       </c>
       <c r="B49" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>445.29583315628884</v>
       </c>
       <c r="C49" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1209.4512897186266</v>
       </c>
       <c r="D49" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>193.02572053058469</v>
       </c>
       <c r="E49" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13.605190928045079</v>
       </c>
       <c r="F49" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>5.8205412253045488</v>
       </c>
     </row>
@@ -5890,23 +5990,23 @@
         <v>38</v>
       </c>
       <c r="B50" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>423.73643536078066</v>
       </c>
       <c r="C50" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1150.8189440526894</v>
       </c>
       <c r="D50" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>183.66210900536959</v>
       </c>
       <c r="E50" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>12.946228903007855</v>
       </c>
       <c r="F50" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>5.53873449788213</v>
       </c>
     </row>
@@ -5915,23 +6015,23 @@
         <v>39</v>
       </c>
       <c r="B51" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>403.21966831344395</v>
       </c>
       <c r="C51" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1095.0478115375674</v>
       </c>
       <c r="D51" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>174.75449598700422</v>
       </c>
       <c r="E51" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>12.318908182953379</v>
       </c>
       <c r="F51" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>5.2705561718701226</v>
       </c>
     </row>
@@ -5940,23 +6040,23 @@
         <v>40</v>
       </c>
       <c r="B52" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>383.69405148755061</v>
       </c>
       <c r="C52" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1041.9918876224845</v>
       </c>
       <c r="D52" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>166.28095100572745</v>
       </c>
       <c r="E52" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>11.721830804527286</v>
       </c>
       <c r="F52" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>5.0153333422030855</v>
       </c>
     </row>
@@ -5965,23 +6065,23 @@
         <v>41</v>
       </c>
       <c r="B53" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>365.11141325212196</v>
       </c>
       <c r="C53" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>991.51378175270327</v>
       </c>
       <c r="D53" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>158.2202035290197</v>
       </c>
       <c r="E53" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>11.153626677796431</v>
       </c>
       <c r="F53" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>4.7724363529184615</v>
       </c>
     </row>
@@ -5990,23 +6090,23 @@
         <v>42</v>
       </c>
       <c r="B54" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>347.42638895216146</v>
       </c>
       <c r="C54" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>943.48439251733271</v>
       </c>
       <c r="D54" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>150.55182146094302</v>
       </c>
       <c r="E54" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>10.612957261308541</v>
       </c>
       <c r="F54" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>4.5412722368566181</v>
       </c>
     </row>
@@ -6015,23 +6115,23 @@
         <v>43</v>
       </c>
       <c r="B55" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>330.5960319964816</v>
       </c>
       <c r="C55" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>897.78234048239392</v>
       </c>
       <c r="D55" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>143.25631314815422</v>
       </c>
       <c r="E55" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>10.098521459970343</v>
       </c>
       <c r="F55" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>4.3212796325568252</v>
       </c>
     </row>
@@ -6040,23 +6140,23 @@
         <v>44</v>
       </c>
       <c r="B56" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>314.5795267474989</v>
       </c>
       <c r="C56" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>854.29330695674798</v>
       </c>
       <c r="D56" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>136.31516774100984</v>
       </c>
       <c r="E56" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>9.6090615855147039</v>
       </c>
       <c r="F56" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>4.1119250317966625</v>
       </c>
     </row>
@@ -6065,23 +6165,23 @@
         <v>45</v>
       </c>
       <c r="B57" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>299.33798406451234</v>
       </c>
       <c r="C57" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>812.90937534515558</v>
       </c>
       <c r="D57" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>129.71085063281063</v>
       </c>
       <c r="E57" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>9.1433681884002151</v>
       </c>
       <c r="F57" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>3.912700107439897</v>
       </c>
     </row>
@@ -6090,23 +6190,23 @@
         <v>46</v>
       </c>
       <c r="B58" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>284.83429844898689</v>
       </c>
       <c r="C58" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>773.52843011119023</v>
       </c>
       <c r="D58" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>123.4267695069789</v>
       </c>
       <c r="E58" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>8.7002832665123488</v>
       </c>
       <c r="F58" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>3.72311984641129</v>
       </c>
     </row>
@@ -6115,23 +6215,23 @@
         <v>47</v>
       </c>
       <c r="B59" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>271.0330474517533</v>
       </c>
       <c r="C59" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>736.05363782123288</v>
       </c>
       <c r="D59" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>117.4472237813111</v>
       </c>
       <c r="E59" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>8.2787018083940218</v>
       </c>
       <c r="F59" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>3.5427212350039872</v>
       </c>
     </row>
@@ -6140,23 +6240,23 @@
         <v>48</v>
       </c>
       <c r="B60" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>257.9004174979649</v>
       </c>
       <c r="C60" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>700.39301441826024</v>
       </c>
       <c r="D60" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>111.75734700191933</v>
       </c>
       <c r="E60" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>7.8775718851696332</v>
       </c>
       <c r="F60" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>3.3710622894302613</v>
       </c>
     </row>
@@ -6165,23 +6265,23 @@
         <v>49</v>
       </c>
       <c r="B61" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>245.40414431089181</v>
       </c>
       <c r="C61" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>666.45907094716324</v>
       </c>
       <c r="D61" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>106.34304865791924</v>
       </c>
       <c r="E61" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>7.4958936187221568</v>
       </c>
       <c r="F61" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>3.2077212771444295</v>
       </c>
     </row>
@@ -6190,23 +6290,23 @@
         <v>50</v>
       </c>
       <c r="B62" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>233.51345990147047</v>
       </c>
       <c r="C62" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>634.16852428570769</v>
       </c>
       <c r="D62" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>101.19095930276961</v>
       </c>
       <c r="E62" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>7.132717372468977</v>
       </c>
       <c r="F62" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>3.0522960239518948</v>
       </c>
     </row>
@@ -6215,23 +6315,23 @@
         <v>51</v>
       </c>
       <c r="B63" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>222.19904124109428</v>
       </c>
       <c r="C63" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>603.44205800634506</v>
       </c>
       <c r="D63" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>96.2883809033479</v>
       </c>
       <c r="E63" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>6.7871414747764653</v>
       </c>
       <c r="F63" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.9044032430976907</v>
       </c>
     </row>
@@ -6240,23 +6340,23 @@
         <v>52</v>
       </c>
       <c r="B64" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>211.43295811460686</v>
       </c>
       <c r="C64" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>574.20411961619925</v>
       </c>
       <c r="D64" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>91.623242979797794</v>
       </c>
       <c r="E64" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>6.4583097229611592</v>
       </c>
       <c r="F64" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.7636778536273963</v>
       </c>
     </row>
@@ -6265,23 +6365,23 @@
         <v>53</v>
       </c>
       <c r="B65" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>201.18861928573511</v>
       </c>
       <c r="C65" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>546.38274281754775</v>
       </c>
       <c r="D65" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>87.184064259688512</v>
       </c>
       <c r="E65" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>6.145408847675669</v>
       </c>
       <c r="F65" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.6297722766851943</v>
       </c>
     </row>
@@ -6290,23 +6390,23 @@
         <v>54</v>
       </c>
       <c r="B66" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>191.44071711211379</v>
       </c>
       <c r="C66" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>519.90938621860721</v>
       </c>
       <c r="D66" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>82.959919131040095</v>
       </c>
       <c r="E66" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>5.8476660550488884</v>
       </c>
       <c r="F66" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.5023557115465378</v>
       </c>
     </row>
@@ -6315,23 +6415,23 @@
         <v>55</v>
       </c>
       <c r="B67" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>182.16517126868757</v>
       </c>
       <c r="C67" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>494.71878256235766</v>
       </c>
       <c r="D67" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>78.940408021367887</v>
       </c>
       <c r="E67" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>5.5643467130331032</v>
       </c>
       <c r="F67" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.3811133999991316</v>
       </c>
     </row>
@@ -6340,23 +6440,23 @@
         <v>56</v>
       </c>
       <c r="B68" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>173.33907242264567</v>
       </c>
       <c r="C68" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>470.74879474770154</v>
       </c>
       <c r="D68" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>75.115630850469515</v>
       </c>
       <c r="E68" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>5.2947522106945666</v>
       </c>
       <c r="F68" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.2657458900943168</v>
       </c>
     </row>
@@ -6365,23 +6465,23 @@
         <v>57</v>
       </c>
       <c r="B69" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>164.94062667616799</v>
       </c>
       <c r="C69" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>447.94027659291999</v>
       </c>
       <c r="D69" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>71.476162821900445</v>
       </c>
       <c r="E69" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>5.0382179938526157</v>
       </c>
       <c r="F69" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.1559683099386708</v>
       </c>
     </row>
@@ -6390,23 +6490,23 @@
         <v>58</v>
       </c>
       <c r="B70" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>156.9491014532864</v>
       </c>
       <c r="C70" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>426.23693745123614</v>
       </c>
       <c r="D70" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>68.013031973855831</v>
       </c>
       <c r="E70" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4.794111765423593</v>
       </c>
       <c r="F70" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.0515096603653946</v>
       </c>
     </row>
@@ -6415,23 +6515,23 @@
         <v>59</v>
       </c>
       <c r="B71" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>149.34477332367754</v>
       </c>
       <c r="C71" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>405.58521050918733</v>
       </c>
       <c r="D71" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>64.717698067031392</v>
       </c>
       <c r="E71" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4.5618318315221513</v>
       </c>
       <c r="F71" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.9521121329264437</v>
       </c>
     </row>
@@ -6440,23 +6540,23 @@
         <v>60</v>
       </c>
       <c r="B72" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>142.10887807366601</v>
       </c>
       <c r="C72" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>385.93412498144102</v>
       </c>
       <c r="D72" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>61.582032523971435</v>
       </c>
       <c r="E72" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4.3408055723717034</v>
       </c>
       <c r="F72" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.8575304572603444</v>
       </c>
     </row>
@@ -6465,23 +6565,23 @@
         <v>61</v>
       </c>
       <c r="B73" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>135.22356317770027</v>
       </c>
       <c r="C73" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>367.23518256167756</v>
       </c>
       <c r="D73" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>58.59829924237696</v>
       </c>
       <c r="E73" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4.1304880183129589</v>
       </c>
       <c r="F73" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.7675312798382925</v>
       </c>
     </row>
@@ -6490,23 +6590,23 @@
         <v>62</v>
       </c>
       <c r="B74" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>128.67184270230092</v>
       </c>
       <c r="C74" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>349.44223848580697</v>
       </c>
       <c r="D74" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>55.759136182640511</v>
       </c>
       <c r="E74" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>3.9303605140946005</v>
       </c>
       <c r="F74" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.6818925745062692</v>
       </c>
     </row>
@@ -6515,23 +6615,23 @@
         <v>63</v>
       </c>
       <c r="B75" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>122.43755458989135</v>
       </c>
       <c r="C75" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>332.51138747957543</v>
       </c>
       <c r="D75" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>53.05753768082775</v>
       </c>
       <c r="E75" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>3.7399294580826874</v>
       </c>
       <c r="F75" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.6004030841353425</v>
       </c>
     </row>
@@ -6540,23 +6640,23 @@
         <v>64</v>
       </c>
       <c r="B76" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>116.50532021759689</v>
       </c>
       <c r="C76" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>316.40085474631815</v>
       </c>
       <c r="D76" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>50.486837467843877</v>
       </c>
       <c r="E76" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>3.55872510634812</v>
       </c>
       <c r="F76" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.5228617920085361</v>
       </c>
     </row>
@@ -6565,23 +6665,23 @@
         <v>65</v>
       </c>
       <c r="B77" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>110.86050609927433</v>
       </c>
       <c r="C77" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>301.07089203353956</v>
       </c>
       <c r="D77" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>48.040692389450385</v>
       </c>
       <c r="E77" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>3.3863004344184517</v>
       </c>
       <c r="F77" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.4490774212221411</v>
       </c>
     </row>
@@ -6590,23 +6690,23 @@
         <v>66</v>
       </c>
       <c r="B78" s="5">
-        <f t="shared" ref="B78:B112" si="5">B77*$B$4+C77*$C$4+D77*$D$4+E77*$E$4+F77*$F$4</f>
+        <f t="shared" ref="B78:B112" si="11">B77*$B$4+C77*$C$4+D77*$D$4+E77*$E$4+F77*$F$4</f>
         <v>105.48918759052773</v>
       </c>
       <c r="C78" s="5">
-        <f t="shared" ref="C78:C112" si="6">B77*$B$5+C77*$C$5+D77*$D$5+E77*$E$5+F77*$F$5</f>
+        <f t="shared" ref="C78:C112" si="12">B77*$B$5+C77*$C$5+D77*$D$5+E77*$E$5+F77*$F$5</f>
         <v>286.48367871658849</v>
       </c>
       <c r="D78" s="5">
-        <f t="shared" ref="D78:D112" si="7">B77*$B$6+C77*$C$6+D77*$D$6+E77*$E$6+F77*$F$6</f>
+        <f t="shared" ref="D78:D112" si="13">B77*$B$6+C77*$C$6+D77*$D$6+E77*$E$6+F77*$F$6</f>
         <v>45.713066825445267</v>
       </c>
       <c r="E78" s="5">
-        <f t="shared" ref="E78:E112" si="8">B77*$B$7+C77*$C$7+D77*$D$7+E77*$E$7+F77*$F$7</f>
+        <f t="shared" ref="E78:E112" si="14">B77*$B$7+C77*$C$7+D77*$D$7+E77*$E$7+F77*$F$7</f>
         <v>3.2222300516729416</v>
       </c>
       <c r="F78" s="5">
-        <f t="shared" ref="F78:F112" si="9">B77*$B$8+C77*$C$8+D77*$D$8+E77*$E$8+F77*$F$8</f>
+        <f t="shared" ref="F78:F112" si="15">B77*$B$8+C77*$C$8+D77*$D$8+E77*$E$8+F77*$F$8</f>
         <v>1.3788679602682379</v>
       </c>
     </row>
@@ -6615,23 +6715,23 @@
         <v>67</v>
       </c>
       <c r="B79" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>100.37811445981713</v>
       </c>
       <c r="C79" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>272.60322776136792</v>
       </c>
       <c r="D79" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>43.4982178039972</v>
       </c>
       <c r="E79" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>3.0661091649244065</v>
       </c>
       <c r="F79" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1.312060213009054</v>
       </c>
     </row>
@@ -6640,23 +6740,23 @@
         <v>68</v>
       </c>
       <c r="B80" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>95.514678198780757</v>
       </c>
       <c r="C80" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>259.39529637661821</v>
       </c>
       <c r="D80" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>41.390680802010458</v>
       </c>
       <c r="E80" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.9175525887543921</v>
       </c>
       <c r="F80" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1.2484893713847136</v>
       </c>
     </row>
@@ -6665,23 +6765,23 @@
         <v>69</v>
       </c>
       <c r="B81" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>90.886880957767474</v>
       </c>
       <c r="C81" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>246.82730113693958</v>
       </c>
       <c r="D81" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>39.385256216621926</v>
       </c>
       <c r="E81" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.7761938007686942</v>
       </c>
       <c r="F81" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1.1879986093642514</v>
       </c>
     </row>
@@ -6690,23 +6790,23 @@
         <v>70</v>
       </c>
       <c r="B82" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>86.483306005795654</v>
       </c>
       <c r="C82" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>234.86823734576157</v>
       </c>
       <c r="D82" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>37.476996487756765</v>
       </c>
       <c r="E82" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.6416840402400661</v>
       </c>
       <c r="F82" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1.1304386968225697</v>
       </c>
     </row>
@@ -6715,23 +6815,23 @@
         <v>71</v>
       </c>
       <c r="B83" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>82.293089626249696</v>
       </c>
       <c r="C83" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>223.48860240798246</v>
       </c>
       <c r="D83" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>35.66119384770699</v>
       </c>
       <c r="E83" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.5136914487111035</v>
       </c>
       <c r="F83" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1.075667632184103</v>
       </c>
     </row>
@@ -6740,23 +6840,23 @@
         <v>72</v>
       </c>
       <c r="B84" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>78.30589436990455</v>
       </c>
       <c r="C84" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>212.6603229905302</v>
       </c>
       <c r="D84" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>33.933368671118672</v>
       </c>
       <c r="E84" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.3919002511274057</v>
       </c>
       <c r="F84" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1.0235502928083167</v>
       </c>
     </row>
@@ -6765,23 +6865,23 @@
         <v>73</v>
       </c>
       <c r="B85" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>74.511883595172918</v>
       </c>
       <c r="C85" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>202.35668576202829</v>
       </c>
       <c r="D85" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>32.289258397479891</v>
       </c>
       <c r="E85" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.2760099760201458</v>
       </c>
       <c r="F85" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.9739581022007</v>
       </c>
     </row>
@@ -6790,23 +6890,23 @@
         <v>74</v>
       </c>
       <c r="B86" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>70.901697231948503</v>
       </c>
       <c r="C86" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>192.55227151744759</v>
       </c>
       <c r="D86" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>30.724806997959618</v>
       </c>
       <c r="E86" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.1657347131978577</v>
       </c>
       <c r="F86" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.92676871321759524</v>
       </c>
     </row>
@@ -6815,23 +6915,23 @@
         <v>75</v>
       </c>
       <c r="B87" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>67.466428710384278</v>
       </c>
       <c r="C87" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>183.22289250833092</v>
       </c>
       <c r="D87" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>29.236154958979505</v>
       </c>
       <c r="E87" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.0608024073621718</v>
       </c>
       <c r="F87" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.88186570649810392</v>
       </c>
     </row>
@@ -6840,23 +6940,23 @@
         <v>76</v>
       </c>
       <c r="B88" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>64.197602999751169</v>
       </c>
       <c r="C88" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>174.345532812866</v>
       </c>
       <c r="D88" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>27.819629755941087</v>
       </c>
       <c r="E88" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.960954186041612</v>
       </c>
       <c r="F88" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.83913830340605866</v>
       </c>
     </row>
@@ -6865,23 +6965,23 @@
         <v>77</v>
       </c>
       <c r="B89" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>61.087155705505531</v>
       </c>
       <c r="C89" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>165.89829159227682</v>
       </c>
       <c r="D89" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>26.471736791858</v>
       </c>
       <c r="E89" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.8659437202432603</v>
       </c>
       <c r="F89" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.79848109280403978</v>
       </c>
     </row>
@@ -6890,23 +6990,23 @@
         <v>78</v>
       </c>
       <c r="B90" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>58.127413175133654</v>
       </c>
       <c r="C90" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>157.86032909058684</v>
       </c>
       <c r="D90" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>25.189150777087718</v>
       </c>
       <c r="E90" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.7755366162512056</v>
       </c>
       <c r="F90" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.75979377101330703</v>
       </c>
     </row>
@@ -6915,23 +7015,23 @@
         <v>79</v>
       </c>
       <c r="B91" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>55.31107356545153</v>
       </c>
       <c r="C91" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>150.21181524389777</v>
       </c>
       <c r="D91" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>23.968707527804213</v>
       </c>
       <c r="E91" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.6895098370479888</v>
       </c>
       <c r="F91" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.72298089434108892</v>
       </c>
     </row>
@@ -6940,23 +7040,23 @@
         <v>80</v>
       </c>
       <c r="B92" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>52.631188825964912</v>
       </c>
       <c r="C92" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>142.93388077313992</v>
       </c>
       <c r="D92" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>22.807396162230564</v>
       </c>
       <c r="E92" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.6076511518950083</v>
       </c>
       <c r="F92" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.68795164358186822</v>
       </c>
     </row>
@@ -6965,23 +7065,23 @@
         <v>81</v>
       </c>
       <c r="B93" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>50.081147554733526</v>
       </c>
       <c r="C93" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>136.00857064104366</v>
       </c>
       <c r="D93" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>21.702351674923058</v>
       </c>
       <c r="E93" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.5297586126747764</v>
       </c>
       <c r="F93" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.65461959992332697</v>
       </c>
     </row>
@@ -6990,23 +7090,23 @@
         <v>82</v>
       </c>
       <c r="B94" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>47.654658684982074</v>
       </c>
       <c r="C94" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>129.41879976009881</v>
       </c>
       <c r="D94" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>20.650847870553502</v>
       </c>
       <c r="E94" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.4556400556677358</v>
       </c>
       <c r="F94" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.62290253171113297</v>
       </c>
     </row>
@@ -7015,23 +7115,23 @@
         <v>83</v>
       </c>
       <c r="B95" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>45.345735962482273</v>
       </c>
       <c r="C95" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>123.14831084371235</v>
       </c>
       <c r="D95" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>19.650290639678296</v>
       </c>
       <c r="E95" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.3851126275059125</v>
       </c>
       <c r="F95" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.59272219155003847</v>
       </c>
     </row>
@@ -7040,23 +7140,23 @@
         <v>84</v>
       </c>
       <c r="B96" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>43.148683175496259</v>
       </c>
       <c r="C96" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>117.18163429780532</v>
       </c>
       <c r="D96" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>18.69821155992312</v>
       </c>
       <c r="E96" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.3180023341129199</v>
       </c>
       <c r="F96" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.56400412324184179</v>
       </c>
     </row>
@@ -7065,23 +7165,23 @@
         <v>85</v>
       </c>
       <c r="B97" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>41.058080100813811</v>
       </c>
       <c r="C97" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>111.5040500548171</v>
       </c>
       <c r="D97" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>17.792261806866343</v>
       </c>
       <c r="E97" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.2541436115035507</v>
       </c>
       <c r="F97" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.53667747808353816</v>
       </c>
     </row>
@@ -7090,23 +7190,23 @@
         <v>86</v>
       </c>
       <c r="B98" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>39.068769131122743</v>
       </c>
       <c r="C98" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>106.10155125658574</v>
       </c>
       <c r="D98" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>16.930206359687592</v>
       </c>
       <c r="E98" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.1933789173758822</v>
       </c>
       <c r="F98" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.51067484007129893</v>
       </c>
     </row>
@@ -7115,23 +7215,23 @@
         <v>87</v>
       </c>
       <c r="B99" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>37.175842550611613</v>
       </c>
       <c r="C99" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>100.96080969688762</v>
       </c>
       <c r="D99" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>16.109918487374276</v>
       </c>
       <c r="E99" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.135558342484416</v>
       </c>
       <c r="F99" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.48593205957760965</v>
       </c>
     </row>
@@ -7140,23 +7240,23 @@
         <v>88</v>
       </c>
       <c r="B100" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>35.374630427305526</v>
       </c>
       <c r="C100" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>96.069142938574842</v>
       </c>
       <c r="D100" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>15.329374501958618</v>
       </c>
       <c r="E100" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.0805392408344829</v>
       </c>
       <c r="F100" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.46238809508983564</v>
       </c>
     </row>
@@ -7165,23 +7265,23 @@
         <v>89</v>
       </c>
       <c r="B101" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>33.660689092173328</v>
       </c>
       <c r="C101" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>91.414483024249336</v>
       </c>
       <c r="D101" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>14.586648765899831</v>
       </c>
       <c r="E101" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.0281858777863311</v>
       </c>
       <c r="F101" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.43998486261858055</v>
       </c>
     </row>
@@ -7190,23 +7290,23 @@
         <v>90</v>
       </c>
       <c r="B102" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>32.029790176512897</v>
       </c>
       <c r="C102" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>86.98534670326427</v>
       </c>
       <c r="D102" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>13.879908941335909</v>
       </c>
       <c r="E102" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.97836909520237469</v>
       </c>
       <c r="F102" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.41866709240339789</v>
       </c>
     </row>
@@ -7215,23 +7315,23 @@
         <v>91</v>
       </c>
       <c r="B103" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>30.477910180519796</v>
       </c>
       <c r="C103" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>82.770807101540981</v>
       </c>
       <c r="D103" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>13.207411469511113</v>
       </c>
       <c r="E103" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.93096599281340187</v>
       </c>
       <c r="F103" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.39838219256169377</v>
       </c>
     </row>
@@ -7240,23 +7340,23 @@
         <v>92</v>
       </c>
       <c r="B104" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>29.001220547273117</v>
       </c>
       <c r="C104" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>78.760466764234167</v>
       </c>
       <c r="D104" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>12.567497269241228</v>
       </c>
       <c r="E104" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.88585962501945126</v>
       </c>
       <c r="F104" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.3790801193440278</v>
       </c>
     </row>
@@ -7265,23 +7365,23 @@
         <v>93</v>
       </c>
       <c r="B105" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>27.596078217633686</v>
       </c>
       <c r="C105" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>74.94443200466597</v>
       </c>
       <c r="D105" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>11.958587643810493</v>
       </c>
       <c r="E105" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.84293871237884921</v>
       </c>
       <c r="F105" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.36071325367550505</v>
       </c>
     </row>
@@ -7290,23 +7390,23 @@
         <v>94</v>
       </c>
       <c r="B106" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>26.259016642746396</v>
       </c>
       <c r="C106" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>71.313288496182906</v>
       </c>
       <c r="D106" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>11.379180386202794</v>
       </c>
       <c r="E106" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.80209736707477453</v>
       </c>
       <c r="F106" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.34323628367859338</v>
       </c>
     </row>
@@ -7315,23 +7415,23 @@
         <v>95</v>
       </c>
       <c r="B107" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>24.98673723197404</v>
       </c>
       <c r="C107" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>67.8580780466704</v>
       </c>
       <c r="D107" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>10.827846073055833</v>
       </c>
       <c r="E107" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.76323483168284934</v>
       </c>
       <c r="F107" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.32660609288754333</v>
       </c>
     </row>
@@ -7340,23 +7440,23 @@
         <v>96</v>
       </c>
       <c r="B108" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>23.776101215167877</v>
       </c>
       <c r="C108" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>64.570276498391763</v>
       </c>
       <c r="D108" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>10.303224538191191</v>
       </c>
       <c r="E108" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.72625523059576413</v>
       </c>
       <c r="F108" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.3107816538786764</v>
       </c>
     </row>
@@ -7365,23 +7465,23 @@
         <v>97</v>
       </c>
       <c r="B109" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>22.624121899203796</v>
       </c>
       <c r="C109" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>61.441772698607721</v>
       </c>
       <c r="D109" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>9.8040215170160252</v>
       </c>
       <c r="E109" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.69106733349194382</v>
       </c>
       <c r="F109" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.29572392705419082</v>
       </c>
     </row>
@@ -7390,23 +7490,23 @@
         <v>98</v>
       </c>
       <c r="B110" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>21.527957299686111</v>
       </c>
       <c r="C110" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>58.464848489083785</v>
       </c>
       <c r="D110" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>9.3290054535140925</v>
       </c>
       <c r="E110" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.65758433026481022</v>
       </c>
       <c r="F110" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.28139576432984897</v>
       </c>
     </row>
@@ -7415,23 +7515,23 @@
         <v>99</v>
       </c>
       <c r="B111" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>20.484903129645673</v>
       </c>
       <c r="C111" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>55.632159665114017</v>
       </c>
       <c r="D111" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>8.8770044619456971</v>
       </c>
       <c r="E111" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.62572361685736833</v>
       </c>
       <c r="F111" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.2677618174890013</v>
       </c>
     </row>
@@ -7440,23 +7540,23 @@
         <v>100</v>
       </c>
       <c r="B112" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>19.492386127938847</v>
       </c>
       <c r="C112" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>52.936717857085981</v>
       </c>
       <c r="D112" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>8.4469034357586814</v>
       </c>
       <c r="E112" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.59540659147369346</v>
       </c>
       <c r="F112" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.25478845097690156</v>
       </c>
     </row>
